--- a/docs/mcode-r4/obf-ContactPerson-extension.xlsx
+++ b/docs/mcode-r4/obf-ContactPerson-extension.xlsx
@@ -203,7 +203,7 @@
     <t>relationship</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Relationship-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/shr-core-Relationship-extension}
 </t>
   </si>
   <si>
@@ -213,7 +213,7 @@
     <t>humanname</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-HumanName-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/shr-core-HumanName-extension}
 </t>
   </si>
   <si>
@@ -223,7 +223,7 @@
     <t>contactpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ContactPoint-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/shr-core-ContactPoint-extension}
 </t>
   </si>
   <si>
@@ -233,7 +233,7 @@
     <t>address</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Address-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/shr-core-Address-extension}
 </t>
   </si>
   <si>
@@ -243,7 +243,7 @@
     <t>administrativegender</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/obf-AdministrativeGender-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/obf-AdministrativeGender-extension}
 </t>
   </si>
   <si>
@@ -253,7 +253,7 @@
     <t>organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/obf-Organization-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Organization-extension}
 </t>
   </si>
   <si>
@@ -264,7 +264,7 @@
     <t>timeperiod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-TimePeriod-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/shr-core-TimePeriod-extension}
 </t>
   </si>
   <si>
@@ -288,7 +288,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/odh/StructureDefinition/obf-ContactPerson-extension</t>
+    <t>http://hl7.org/fhir/us/mcode/StructureDefinition/obf-ContactPerson-extension</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
